--- a/Svadba.xlsx
+++ b/Svadba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charvatj\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charvatj\Documents\GitHub_jurko\svatba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,13 +798,13 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
@@ -823,13 +823,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -1028,11 +1028,15 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E25">
         <f>SUM(E2:E21)</f>
-        <v>262290</v>
+        <v>268290</v>
+      </c>
+      <c r="G25">
+        <f>SUM(G2:G24)</f>
+        <v>16000</v>
       </c>
       <c r="H25">
         <f>SUM(H2:H23)</f>
-        <v>246290</v>
+        <v>252290</v>
       </c>
     </row>
   </sheetData>

--- a/Svadba.xlsx
+++ b/Svadba.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>DJ</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Vyzdoba</t>
   </si>
   <si>
-    <t>Boty Kami</t>
-  </si>
-  <si>
     <t>Boty Jurko</t>
   </si>
   <si>
@@ -196,6 +193,12 @@
   </si>
   <si>
     <t>kamin odhad</t>
+  </si>
+  <si>
+    <t>Saty vecerne</t>
+  </si>
+  <si>
+    <t>Boty Kami *2</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,7 +681,7 @@
         <v>7000</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H21" si="0">E3-G3</f>
+        <f t="shared" ref="H3:H22" si="0">E3-G3</f>
         <v>27190</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -833,7 +836,7 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -856,16 +859,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E11">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
@@ -874,29 +877,32 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>15000</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J12" s="8" t="s">
+        <v>7000</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>45</v>
@@ -904,14 +910,14 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>45</v>
@@ -919,14 +925,14 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>45</v>
@@ -934,14 +940,14 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>45</v>
@@ -949,14 +955,14 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>45</v>
@@ -964,14 +970,14 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>45</v>
@@ -979,14 +985,14 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>45</v>
@@ -994,14 +1000,14 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>45</v>
@@ -1009,34 +1015,49 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22">
         <v>3000</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25">
-        <f>SUM(E2:E21)</f>
-        <v>268290</v>
-      </c>
-      <c r="G25">
-        <f>SUM(G2:G24)</f>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>SUM(E2:E22)</f>
+        <v>273790</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G2:G25)</f>
         <v>16000</v>
       </c>
-      <c r="H25">
-        <f>SUM(H2:H23)</f>
-        <v>252290</v>
+      <c r="H26">
+        <f>SUM(H2:H24)</f>
+        <v>257790</v>
       </c>
     </row>
   </sheetData>
